--- a/data/intervals.xlsx
+++ b/data/intervals.xlsx
@@ -460,16 +460,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.2613180401171691</v>
+        <v>-0.3236798569332543</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2529428402437208</v>
+        <v>-0.07804303399018395</v>
       </c>
       <c r="D2" t="n">
         <v>0.1</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.2445676403702724</v>
+        <v>0.1675937889528864</v>
       </c>
     </row>
     <row r="3">
@@ -477,16 +477,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9.839319022314458</v>
+        <v>9.415194662350457</v>
       </c>
       <c r="C3" t="n">
-        <v>9.859262275382726</v>
+        <v>9.793741970092768</v>
       </c>
       <c r="D3" t="n">
         <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>9.879205528450994</v>
+        <v>10.17228927783508</v>
       </c>
     </row>
     <row r="4">
@@ -494,16 +494,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.912348641331895</v>
+        <v>-0.08861640112952046</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.8664834032299527</v>
+        <v>0.4659205697519017</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.8206181651280103</v>
+        <v>1.020457540633324</v>
       </c>
     </row>
     <row r="5">
@@ -511,16 +511,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-6.072915641995555</v>
+        <v>-8.353335167575146</v>
       </c>
       <c r="C5" t="n">
-        <v>-5.960709490879466</v>
+        <v>-7.517289310840783</v>
       </c>
       <c r="D5" t="n">
         <v>-7</v>
       </c>
       <c r="E5" t="n">
-        <v>-5.848503339763378</v>
+        <v>-6.68124345410642</v>
       </c>
     </row>
     <row r="6">
@@ -528,16 +528,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.73940469030635</v>
+        <v>5.332219269048514</v>
       </c>
       <c r="C6" t="n">
-        <v>5.766064213066683</v>
+        <v>5.806335826943708</v>
       </c>
       <c r="D6" t="n">
         <v>6</v>
       </c>
       <c r="E6" t="n">
-        <v>5.792723735827017</v>
+        <v>6.280452384838902</v>
       </c>
     </row>
     <row r="7">
@@ -545,16 +545,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.226777433551662</v>
+        <v>-0.2542702753794868</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.208093977987868</v>
+        <v>0.06131248183902593</v>
       </c>
       <c r="D7" t="n">
         <v>0.1</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.189410522424073</v>
+        <v>0.3768952390575387</v>
       </c>
     </row>
   </sheetData>
